--- a/plugins/db-wakamiti-plugin/src/test/resources/data3.xlsx
+++ b/plugins/db-wakamiti-plugin/src/test/resources/data3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Trabajo\iti\wakamiti\repo\plugins\db-wakamiti-plugin\src\test\resources\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mgalbis\Proyectos\temp\plugins\db-wakamiti-plugin\src\test\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C90F00BB-A221-4371-867E-B9E9F245A691}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ED2C0A6B-CD69-4A8D-890E-381C9D0D3781}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>id</t>
   </si>
@@ -73,6 +73,9 @@
   </si>
   <si>
     <t>Perez</t>
+  </si>
+  <si>
+    <t>false</t>
   </si>
 </sst>
 </file>
@@ -134,9 +137,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - Tema de 2022">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -174,7 +177,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -280,7 +283,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -422,7 +425,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -466,8 +469,8 @@
       <c r="B2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="3">
-        <v>0</v>
+      <c r="C2" s="3" t="s">
+        <v>15</v>
       </c>
       <c r="D2" s="4" t="s">
         <v>9</v>
